--- a/Bumrise/src/dataEngine/DataEngine.xlsx
+++ b/Bumrise/src/dataEngine/DataEngine.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Bumrise\src\dataEngine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BumGit\bum-repository\Bumrise\src\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -145,9 +145,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Login_02</t>
-  </si>
-  <si>
     <t>TS_009</t>
   </si>
   <si>
@@ -233,13 +230,36 @@
   </si>
   <si>
     <t>Inventory_Page Objects</t>
+  </si>
+  <si>
+    <t>Action_01</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>TS_013</t>
+  </si>
+  <si>
+    <t>TS_014</t>
+  </si>
+  <si>
+    <t>TS_015</t>
+  </si>
+  <si>
+    <t>Click Action</t>
+  </si>
+  <si>
+    <t>Collect Bottles for 1 Hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -356,6 +376,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,19 +660,19 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>26</v>
@@ -674,10 +695,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -697,7 +718,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,7 +738,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -737,7 +758,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -745,25 +766,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,19 +798,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -813,7 +834,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -833,7 +854,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,16 +865,16 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -861,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
@@ -877,7 +898,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -885,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -897,53 +918,81 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -1064,13 +1113,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D16">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1084,14 +1133,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1105,7 +1154,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,15 +1168,15 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -1145,46 +1194,46 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -1193,13 +1242,13 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -1207,18 +1256,18 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
@@ -1226,13 +1275,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1243,7 +1292,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1251,12 +1300,12 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1264,7 +1313,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,7 +1346,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">

--- a/Bumrise/src/dataEngine/DataEngine.xlsx
+++ b/Bumrise/src/dataEngine/DataEngine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="6270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="6270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="97">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -163,97 +163,169 @@
     <t>Results</t>
   </si>
   <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>rambinator</t>
+  </si>
+  <si>
+    <t>Cacamaca100</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>Login_Page</t>
+  </si>
+  <si>
+    <t>Home_Page</t>
+  </si>
+  <si>
+    <t>Action_Page</t>
+  </si>
+  <si>
+    <t>Inventory_Page</t>
+  </si>
+  <si>
+    <t>Login_Page Objects</t>
+  </si>
+  <si>
+    <t>Home_Page Objects</t>
+  </si>
+  <si>
+    <t>Action_Page Objects</t>
+  </si>
+  <si>
+    <t>Inventory_Bottles_Page</t>
+  </si>
+  <si>
+    <t>Inventory_Bottles_Page Objects</t>
+  </si>
+  <si>
+    <t>btn_Actions</t>
+  </si>
+  <si>
+    <t>btn_Inventory</t>
+  </si>
+  <si>
+    <t>btn_Collect</t>
+  </si>
+  <si>
+    <t>btn_Bottles</t>
+  </si>
+  <si>
+    <t>btn_Max</t>
+  </si>
+  <si>
+    <t>btn_Sell</t>
+  </si>
+  <si>
+    <t>Action Keywords</t>
+  </si>
+  <si>
+    <t>Inventory_Page Objects</t>
+  </si>
+  <si>
+    <t>Action_01</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>TS_013</t>
+  </si>
+  <si>
+    <t>TS_014</t>
+  </si>
+  <si>
+    <t>TS_015</t>
+  </si>
+  <si>
+    <t>Click Action</t>
+  </si>
+  <si>
+    <t>Collect Bottles for 1 Hour</t>
+  </si>
+  <si>
+    <t>Select Time from dropdown list</t>
+  </si>
+  <si>
+    <t>Click Collect</t>
+  </si>
+  <si>
+    <t>Click Logout</t>
+  </si>
+  <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>Login_02</t>
+  </si>
+  <si>
+    <t>TS_016</t>
+  </si>
+  <si>
+    <t>TS_017</t>
+  </si>
+  <si>
+    <t>TS_018</t>
+  </si>
+  <si>
+    <t>TS_019</t>
+  </si>
+  <si>
+    <t>TS_020</t>
+  </si>
+  <si>
+    <t>Open the browser</t>
+  </si>
+  <si>
+    <t>Click Login</t>
+  </si>
+  <si>
+    <t>Wait for 8 seconds</t>
+  </si>
+  <si>
+    <t>Close the pop-up</t>
+  </si>
+  <si>
+    <t>TS_021</t>
+  </si>
+  <si>
+    <t>TS_022</t>
+  </si>
+  <si>
+    <t>TS_023</t>
+  </si>
+  <si>
+    <t>Logout_01</t>
+  </si>
+  <si>
+    <t>Login to Bumrise and logout</t>
+  </si>
+  <si>
+    <t>Logout from Bumrise</t>
+  </si>
+  <si>
+    <t>lst_Time</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Data Set</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>rambinator</t>
-  </si>
-  <si>
-    <t>Cacamaca100</t>
-  </si>
-  <si>
-    <t>Page Name</t>
-  </si>
-  <si>
-    <t>Login_Page</t>
-  </si>
-  <si>
-    <t>Home_Page</t>
-  </si>
-  <si>
-    <t>Action_Page</t>
-  </si>
-  <si>
-    <t>Inventory_Page</t>
-  </si>
-  <si>
-    <t>Login_Page Objects</t>
-  </si>
-  <si>
-    <t>Home_Page Objects</t>
-  </si>
-  <si>
-    <t>Action_Page Objects</t>
-  </si>
-  <si>
-    <t>Inventory_Bottles_Page</t>
-  </si>
-  <si>
-    <t>Inventory_Bottles_Page Objects</t>
-  </si>
-  <si>
-    <t>btn_Actions</t>
-  </si>
-  <si>
-    <t>btn_Inventory</t>
-  </si>
-  <si>
-    <t>btn_Collect</t>
-  </si>
-  <si>
-    <t>btn_Bottles</t>
-  </si>
-  <si>
-    <t>btn_Max</t>
-  </si>
-  <si>
-    <t>btn_Sell</t>
-  </si>
-  <si>
-    <t>Action Keywords</t>
-  </si>
-  <si>
-    <t>Inventory_Page Objects</t>
-  </si>
-  <si>
-    <t>Action_01</t>
-  </si>
-  <si>
-    <t>TS_011</t>
-  </si>
-  <si>
-    <t>TS_012</t>
-  </si>
-  <si>
-    <t>TS_013</t>
-  </si>
-  <si>
-    <t>TS_014</t>
-  </si>
-  <si>
-    <t>TS_015</t>
-  </si>
-  <si>
-    <t>Click Action</t>
-  </si>
-  <si>
-    <t>Collect Bottles for 1 Hour</t>
+    <t>selectTime</t>
+  </si>
+  <si>
+    <t>TS_024</t>
+  </si>
+  <si>
+    <t>TS_025</t>
   </si>
 </sst>
 </file>
@@ -657,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>26</v>
@@ -695,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>41</v>
@@ -717,9 +789,6 @@
         <v>7</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -737,9 +806,6 @@
         <v>25</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -757,9 +823,6 @@
         <v>10</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -772,19 +835,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,19 +858,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -824,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -833,9 +890,6 @@
         <v>31</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -853,9 +907,6 @@
         <v>18</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -873,9 +924,6 @@
         <v>38</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -888,7 +936,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
@@ -897,9 +945,6 @@
         <v>31</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -917,174 +962,331 @@
         <v>23</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="1"/>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>65</v>
+      <c r="A14" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="1"/>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>65</v>
+      <c r="A15" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1093,7 +1295,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1102,7 +1304,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1111,15 +1313,105 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D26">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E26">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1130,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,26 +1454,50 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1193,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,30 +1526,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -1242,13 +1558,13 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -1256,18 +1572,20 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
@@ -1275,13 +1593,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1292,7 +1610,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1300,12 +1618,12 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1313,7 +1631,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,7 +1642,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,7 +1653,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1346,7 +1664,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,7 +1675,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1368,7 +1686,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/Bumrise/src/dataEngine/DataEngine.xlsx
+++ b/Bumrise/src/dataEngine/DataEngine.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BumGit\bum-repository\Bumrise\src\dataEngine\"/>
     </mc:Choice>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="110">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -326,12 +326,52 @@
   </si>
   <si>
     <t>TS_025</t>
+  </si>
+  <si>
+    <t>Empty_01</t>
+  </si>
+  <si>
+    <t>TS_026</t>
+  </si>
+  <si>
+    <t>TS_027</t>
+  </si>
+  <si>
+    <t>TS_028</t>
+  </si>
+  <si>
+    <t>TS_029</t>
+  </si>
+  <si>
+    <t>TS_030</t>
+  </si>
+  <si>
+    <t>Go to homepage</t>
+  </si>
+  <si>
+    <t>TS_031</t>
+  </si>
+  <si>
+    <t>btn_Home</t>
+  </si>
+  <si>
+    <t>Close pop-up</t>
+  </si>
+  <si>
+    <t>Click Empty</t>
+  </si>
+  <si>
+    <t>Empty collected bottles</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,19 +772,19 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="47.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,27 +1287,24 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1277,68 +1314,153 @@
         <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="A30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="A31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="A32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1405,13 +1527,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1422,17 +1544,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,21 +1604,38 @@
         <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>91</v>
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1510,18 +1649,18 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1613,7 +1752,9 @@
         <v>50</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>

--- a/Bumrise/src/dataEngine/DataEngine.xlsx
+++ b/Bumrise/src/dataEngine/DataEngine.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BumGit\bum-repository\Bumrise\src\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="6270" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="110">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -371,7 +371,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -771,20 +770,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,6 +1218,9 @@
         <v>18</v>
       </c>
       <c r="G21" s="1"/>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1236,6 +1238,9 @@
         <v>38</v>
       </c>
       <c r="G22" s="1"/>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -1305,6 +1310,9 @@
         <v>31</v>
       </c>
       <c r="G25" s="1"/>
+      <c r="H25" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1327,7 +1335,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,7 +1379,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1435,7 +1443,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,14 +1555,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1604,7 +1612,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
@@ -1618,10 +1626,10 @@
         <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,19 +1656,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">

--- a/Bumrise/src/dataEngine/DataEngine.xlsx
+++ b/Bumrise/src/dataEngine/DataEngine.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BumGit\bum-repository\Bumrise\src\dataEngine\"/>
     </mc:Choice>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -365,12 +365,16 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>btn_Empty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -771,19 +775,19 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="47.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,7 +1339,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1379,7 +1383,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1436,14 +1440,14 @@
         <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1555,14 +1559,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1612,7 +1616,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
@@ -1626,10 +1630,10 @@
         <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,18 +1661,18 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1748,7 +1752,9 @@
       <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
